--- a/biology/Mycologie/Suillus_cavipes/Suillus_cavipes.xlsx
+++ b/biology/Mycologie/Suillus_cavipes/Suillus_cavipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet à pied creux
 Suillus cavipes, le Bolet à pied creux, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par son pied creux à la coupe.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus cavipes (Klotzsch) A.H.Sm. &amp; Thiers[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus cavipes Klotzsch[1].
-Synonymes
-Suillus cavipes a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus cavipes (Klotzsch) A.H.Sm. &amp; Thiers.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus cavipes Klotzsch.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus cavipes a pour synonymes :
 Boletinellus porosus (Berk.) Snell
 Boletinus cavipes (Klotzsch) Kalchbr.
 Boletinus porosus (Berk.) Peck
@@ -527,47 +576,7 @@
 Boletus porosus (Berk.) Sacc.
 Euryporus cavipes (Klotzsch) Quél.
 Paxillus porosus Berk.
-Solenia cavipes (Klotzsch) Kuntze
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet à pied creux[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suillus_cavipes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_cavipes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillus cavipes, le Bolet à pied creux, sont les suivantes :
-Son chapeau mesure de 2 à 15 cm, il est feutré pelucheux et parfois même méchuleux, brun-roux, toujours mamelonné[3].
-L'hyménophore présente des tubes décurrents, jaunes puis verdâtres. Les pores sont anguleux, amples (plus au moins 3 mm de diamètre), étiré radialement, concolores aux tubes[3].
-Son stipe mesure 3 à 8 cm x 1 à 2 cm, typiquement creux, concolore au chapeau sous un anneau floconneux blanc[3].
-La chair est de couleur crème. Sa saveur est douce et son odeur est faible[3].
-Caractéristiques microscopiques
-Ses spores mesurent 7,5 à 11 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes[3].
-</t>
+Solenia cavipes (Klotzsch) Kuntze</t>
         </is>
       </c>
     </row>
@@ -592,10 +601,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet à pied creux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillus cavipes, le Bolet à pied creux, sont les suivantes :
+Son chapeau mesure de 2 à 15 cm, il est feutré pelucheux et parfois même méchuleux, brun-roux, toujours mamelonné.
+L'hyménophore présente des tubes décurrents, jaunes puis verdâtres. Les pores sont anguleux, amples (plus au moins 3 mm de diamètre), étiré radialement, concolores aux tubes.
+Son stipe mesure 3 à 8 cm x 1 à 2 cm, typiquement creux, concolore au chapeau sous un anneau floconneux blanc.
+La chair est de couleur crème. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 7,5 à 11 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_cavipes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus cavipes var. aureus a le chapeau jaune doré.
 </t>
